--- a/target/test-classes/data/TestData.xlsx
+++ b/target/test-classes/data/TestData.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\657392\git\TestCucumber_Project_Updated_Git\MyFrame\src\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="InputData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>UserName</t>
   </si>
@@ -65,7 +60,16 @@
     <t>9300305</t>
   </si>
   <si>
-    <t>redmi note 3</t>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>redmi note 4</t>
   </si>
 </sst>
 </file>
@@ -376,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -384,73 +388,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/data/TestData.xlsx
+++ b/target/test-classes/data/TestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="9720" windowHeight="3660"/>
   </bookViews>
   <sheets>
     <sheet name="InputData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,10 +67,10 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>redmi note 4</t>
+  </si>
+  <si>
     <t>IE</t>
-  </si>
-  <si>
-    <t>redmi note 4</t>
   </si>
 </sst>
 </file>
@@ -391,7 +392,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +426,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -466,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/data/TestData.xlsx
+++ b/target/test-classes/data/TestData.xlsx
@@ -10,7 +10,6 @@
     <sheet name="InputData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +69,7 @@
     <t>redmi note 4</t>
   </si>
   <si>
-    <t>IE</t>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -381,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -392,7 +391,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
